--- a/biology/Zoologie/Heliocidaris_tuberculata/Heliocidaris_tuberculata.xlsx
+++ b/biology/Zoologie/Heliocidaris_tuberculata/Heliocidaris_tuberculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliocidaris tuberculata est une espèce d'oursins réguliers de la famille des Echinometridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers de forme canonique : test (coquille) plus ou moins sphérique, radioles (piquants) fines, pointues et de longueur moyenne, symétrie pentaradiaire reliant la bouche située au centre de la face orale (inférieure) à l'anus situé à l'apex aboral (pôle supérieur).
 Cet oursin a un test légèrement ovoïde, rosé à violacé, sur lequel se détachent des radioles fauves, pouvant être brunes, orangées, rouges, ou violettes, avec la base parfois cerclée de crème. Le test mesure entre 5 et 10 cm, et les radioles ne dépassent pas 3 cm.
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces oursins se trouvent sur les côtes de l'Australie du Sud-est et de la Nouvelle-Zélande, jusqu'aux Pitcairn[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces oursins se trouvent sur les côtes de l'Australie du Sud-est et de la Nouvelle-Zélande, jusqu'aux Pitcairn.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Heliocidaris tuberculata et l'Homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oursin est comestible, et consommé en Australie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oursin est comestible, et consommé en Australie.
 </t>
         </is>
       </c>
